--- a/Evidencia ejecución cartera/Ciclo 2/Menu de Favoritos/Pagares/814_TC_Cartera_Pagares_ImportarRecomprasAgregar/Pruebas_ImportarRecompra_01.xlsx
+++ b/Evidencia ejecución cartera/Ciclo 2/Menu de Favoritos/Pagares/814_TC_Cartera_Pagares_ImportarRecomprasAgregar/Pruebas_ImportarRecompra_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\Evidencia ejecución cartera\Ciclo 2\Menu de Favoritos\Pagares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\Evidencia ejecución cartera\Ciclo 2\Menu de Favoritos\Pagares\814_TC_Cartera_Pagares_ImportarRecomprasAgregar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E58F8-F29E-4813-8497-515A7300C878}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F83FB9-A6FB-4A83-B0BB-2349A82B1E7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" xr2:uid="{E9053BB9-E094-4684-A9BB-F76B057D7881}"/>
+    <workbookView xWindow="4005" yWindow="2985" windowWidth="13815" windowHeight="7095" xr2:uid="{E9053BB9-E094-4684-A9BB-F76B057D7881}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
